--- a/Supporting_Files/Optical_Constants/Y6_n.xlsx
+++ b/Supporting_Files/Optical_Constants/Y6_n.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austi\Jupyter_Projects\Drift_Diffusion_Simulations\Supporting_Files\Optical_Constants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austi\Jupyter_Projects\EQE_Tool\PV_Performance_Simulator_2.1\Supporting_Files\Optical_Constants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0268A00-9677-4DC8-A897-ACB31E565450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5687DDB9-89D5-4A56-B7BC-3275EC502D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5DBBDAB5-3029-4600-B6BD-5F4C26B2F794}"/>
   </bookViews>
@@ -106,9 +106,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -146,7 +146,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -252,7 +252,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,7 +394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D4D931-6AC3-4F05-8F7A-3CB72A11F03C}">
-  <dimension ref="A1:B352"/>
+  <dimension ref="A1:B328"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="J313" sqref="J313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2396,833 +2396,641 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>1485</v>
+        <v>1605</v>
       </c>
       <c r="B249">
-        <v>2.1903000000000001</v>
+        <v>2.1650999999999998</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>1490</v>
+        <v>1610</v>
       </c>
       <c r="B250">
-        <v>2.1890999999999998</v>
+        <v>2.1642999999999999</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>1495</v>
+        <v>1615</v>
       </c>
       <c r="B251">
-        <v>2.1879</v>
+        <v>2.1634000000000002</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>1500</v>
+        <v>1620</v>
       </c>
       <c r="B252">
-        <v>2.1867000000000001</v>
+        <v>2.1625000000000001</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>1505</v>
+        <v>1625</v>
       </c>
       <c r="B253">
-        <v>2.1855000000000002</v>
+        <v>2.1617000000000002</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>1510</v>
+        <v>1630</v>
       </c>
       <c r="B254">
-        <v>2.1842999999999999</v>
+        <v>2.1608000000000001</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>1515</v>
+        <v>1635</v>
       </c>
       <c r="B255">
-        <v>2.1831999999999998</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>1520</v>
+        <v>1640</v>
       </c>
       <c r="B256">
-        <v>2.1821000000000002</v>
+        <v>2.1591999999999998</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>1525</v>
+        <v>1645</v>
       </c>
       <c r="B257">
-        <v>2.181</v>
+        <v>2.1583999999999999</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>1530</v>
+        <v>1650</v>
       </c>
       <c r="B258">
-        <v>2.1798999999999999</v>
+        <v>2.1576</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>1535</v>
+        <v>1655</v>
       </c>
       <c r="B259">
-        <v>2.1787999999999998</v>
+        <v>2.1568000000000001</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>1540</v>
+        <v>1660</v>
       </c>
       <c r="B260">
-        <v>2.1777000000000002</v>
+        <v>2.1560000000000001</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>1545</v>
+        <v>1665</v>
       </c>
       <c r="B261">
-        <v>2.1766999999999999</v>
+        <v>2.1551999999999998</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>1550</v>
+        <v>1670</v>
       </c>
       <c r="B262">
-        <v>2.1757</v>
+        <v>2.1545000000000001</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>1555</v>
+        <v>1675</v>
       </c>
       <c r="B263">
-        <v>2.1745999999999999</v>
+        <v>2.1537000000000002</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>1560</v>
+        <v>1680</v>
       </c>
       <c r="B264">
-        <v>2.1736</v>
+        <v>2.153</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>1565</v>
+        <v>1685</v>
       </c>
       <c r="B265">
-        <v>2.1726000000000001</v>
+        <v>2.1522000000000001</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>1570</v>
+        <v>1690</v>
       </c>
       <c r="B266">
-        <v>2.1717</v>
+        <v>2.1515</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>1575</v>
+        <v>1695</v>
       </c>
       <c r="B267">
-        <v>2.1707000000000001</v>
+        <v>2.1507999999999998</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>1580</v>
+        <v>1700</v>
       </c>
       <c r="B268">
-        <v>2.1697000000000002</v>
+        <v>2.1501000000000001</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>1585</v>
+        <v>1705</v>
       </c>
       <c r="B269">
-        <v>2.1688000000000001</v>
+        <v>2.1494</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>1590</v>
+        <v>1710</v>
       </c>
       <c r="B270">
-        <v>2.1678999999999999</v>
+        <v>2.1486999999999998</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>1595</v>
+        <v>1715</v>
       </c>
       <c r="B271">
-        <v>2.1669</v>
+        <v>2.1480000000000001</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>1600</v>
+        <v>1720</v>
       </c>
       <c r="B272">
-        <v>2.1659999999999999</v>
+        <v>2.1473</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>1605</v>
+        <v>1725</v>
       </c>
       <c r="B273">
-        <v>2.1650999999999998</v>
+        <v>2.1467000000000001</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>1610</v>
+        <v>1730</v>
       </c>
       <c r="B274">
-        <v>2.1642999999999999</v>
+        <v>2.1459999999999999</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>1615</v>
+        <v>1735</v>
       </c>
       <c r="B275">
-        <v>2.1634000000000002</v>
+        <v>2.1453000000000002</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>1620</v>
+        <v>1740</v>
       </c>
       <c r="B276">
-        <v>2.1625000000000001</v>
+        <v>2.1446999999999998</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>1625</v>
+        <v>1745</v>
       </c>
       <c r="B277">
-        <v>2.1617000000000002</v>
+        <v>2.1440000000000001</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>1630</v>
+        <v>1750</v>
       </c>
       <c r="B278">
-        <v>2.1608000000000001</v>
+        <v>2.1434000000000002</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>1635</v>
+        <v>1755</v>
       </c>
       <c r="B279">
-        <v>2.16</v>
+        <v>2.1427999999999998</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>1640</v>
+        <v>1760</v>
       </c>
       <c r="B280">
-        <v>2.1591999999999998</v>
+        <v>2.1421999999999999</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>1645</v>
+        <v>1765</v>
       </c>
       <c r="B281">
-        <v>2.1583999999999999</v>
+        <v>2.1415000000000002</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>1650</v>
+        <v>1770</v>
       </c>
       <c r="B282">
-        <v>2.1576</v>
+        <v>2.1408999999999998</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>1655</v>
+        <v>1775</v>
       </c>
       <c r="B283">
-        <v>2.1568000000000001</v>
+        <v>2.1402999999999999</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>1660</v>
+        <v>1780</v>
       </c>
       <c r="B284">
-        <v>2.1560000000000001</v>
+        <v>2.1396999999999999</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>1665</v>
+        <v>1785</v>
       </c>
       <c r="B285">
-        <v>2.1551999999999998</v>
+        <v>2.1392000000000002</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>1670</v>
+        <v>1790</v>
       </c>
       <c r="B286">
-        <v>2.1545000000000001</v>
+        <v>2.1385999999999998</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>1675</v>
+        <v>1795</v>
       </c>
       <c r="B287">
-        <v>2.1537000000000002</v>
+        <v>2.1379999999999999</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>1680</v>
+        <v>1800</v>
       </c>
       <c r="B288">
-        <v>2.153</v>
+        <v>2.1374</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>1685</v>
+        <v>1805</v>
       </c>
       <c r="B289">
-        <v>2.1522000000000001</v>
+        <v>2.1368999999999998</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>1690</v>
+        <v>1810</v>
       </c>
       <c r="B290">
-        <v>2.1515</v>
+        <v>2.1362999999999999</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>1695</v>
+        <v>1815</v>
       </c>
       <c r="B291">
-        <v>2.1507999999999998</v>
+        <v>2.1358000000000001</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>1700</v>
+        <v>1820</v>
       </c>
       <c r="B292">
-        <v>2.1501000000000001</v>
+        <v>2.1352000000000002</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>1705</v>
+        <v>1825</v>
       </c>
       <c r="B293">
-        <v>2.1494</v>
+        <v>2.1347</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>1710</v>
+        <v>1830</v>
       </c>
       <c r="B294">
-        <v>2.1486999999999998</v>
+        <v>2.1341000000000001</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>1715</v>
+        <v>1835</v>
       </c>
       <c r="B295">
-        <v>2.1480000000000001</v>
+        <v>2.1335999999999999</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>1720</v>
+        <v>1840</v>
       </c>
       <c r="B296">
-        <v>2.1473</v>
+        <v>2.1331000000000002</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>1725</v>
+        <v>1845</v>
       </c>
       <c r="B297">
-        <v>2.1467000000000001</v>
+        <v>2.1326000000000001</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>1730</v>
+        <v>1850</v>
       </c>
       <c r="B298">
-        <v>2.1459999999999999</v>
+        <v>2.1320999999999999</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>1735</v>
+        <v>1855</v>
       </c>
       <c r="B299">
-        <v>2.1453000000000002</v>
+        <v>2.1316000000000002</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>1740</v>
+        <v>1860</v>
       </c>
       <c r="B300">
-        <v>2.1446999999999998</v>
+        <v>2.1311</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>1745</v>
+        <v>1865</v>
       </c>
       <c r="B301">
-        <v>2.1440000000000001</v>
+        <v>2.1305999999999998</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>1750</v>
+        <v>1870</v>
       </c>
       <c r="B302">
-        <v>2.1434000000000002</v>
+        <v>2.1301000000000001</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>1755</v>
+        <v>1875</v>
       </c>
       <c r="B303">
-        <v>2.1427999999999998</v>
+        <v>2.1295999999999999</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>1760</v>
+        <v>1880</v>
       </c>
       <c r="B304">
-        <v>2.1421999999999999</v>
+        <v>2.1291000000000002</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>1765</v>
+        <v>1885</v>
       </c>
       <c r="B305">
-        <v>2.1415000000000002</v>
+        <v>2.1286</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>1770</v>
+        <v>1890</v>
       </c>
       <c r="B306">
-        <v>2.1408999999999998</v>
+        <v>2.1280999999999999</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>1775</v>
+        <v>1895</v>
       </c>
       <c r="B307">
-        <v>2.1402999999999999</v>
+        <v>2.1276999999999999</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>1780</v>
+        <v>1900</v>
       </c>
       <c r="B308">
-        <v>2.1396999999999999</v>
+        <v>2.1272000000000002</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>1785</v>
+        <v>1905</v>
       </c>
       <c r="B309">
-        <v>2.1392000000000002</v>
+        <v>2.1267</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>1790</v>
+        <v>1910</v>
       </c>
       <c r="B310">
-        <v>2.1385999999999998</v>
+        <v>2.1263000000000001</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>1795</v>
+        <v>1915</v>
       </c>
       <c r="B311">
-        <v>2.1379999999999999</v>
+        <v>2.1257999999999999</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>1800</v>
+        <v>1920</v>
       </c>
       <c r="B312">
-        <v>2.1374</v>
+        <v>2.1254</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>1805</v>
+        <v>1925</v>
       </c>
       <c r="B313">
-        <v>2.1368999999999998</v>
+        <v>2.125</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>1810</v>
+        <v>1930</v>
       </c>
       <c r="B314">
-        <v>2.1362999999999999</v>
+        <v>2.1244999999999998</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>1815</v>
+        <v>1935</v>
       </c>
       <c r="B315">
-        <v>2.1358000000000001</v>
+        <v>2.1240999999999999</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>1820</v>
+        <v>1940</v>
       </c>
       <c r="B316">
-        <v>2.1352000000000002</v>
+        <v>2.1236999999999999</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>1825</v>
+        <v>1945</v>
       </c>
       <c r="B317">
-        <v>2.1347</v>
+        <v>2.1232000000000002</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>1830</v>
+        <v>1950</v>
       </c>
       <c r="B318">
-        <v>2.1341000000000001</v>
+        <v>2.1227999999999998</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>1835</v>
+        <v>1955</v>
       </c>
       <c r="B319">
-        <v>2.1335999999999999</v>
+        <v>2.1223999999999998</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>1840</v>
+        <v>1960</v>
       </c>
       <c r="B320">
-        <v>2.1331000000000002</v>
+        <v>2.1219999999999999</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>1845</v>
+        <v>1965</v>
       </c>
       <c r="B321">
-        <v>2.1326000000000001</v>
+        <v>2.1215999999999999</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>1850</v>
+        <v>1970</v>
       </c>
       <c r="B322">
-        <v>2.1320999999999999</v>
+        <v>2.1212</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>1855</v>
+        <v>1975</v>
       </c>
       <c r="B323">
-        <v>2.1316000000000002</v>
+        <v>2.1208</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>1860</v>
+        <v>1980</v>
       </c>
       <c r="B324">
-        <v>2.1311</v>
+        <v>2.1204000000000001</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>1865</v>
+        <v>1985</v>
       </c>
       <c r="B325">
-        <v>2.1305999999999998</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>1870</v>
+        <v>1990</v>
       </c>
       <c r="B326">
-        <v>2.1301000000000001</v>
+        <v>2.1196000000000002</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>1875</v>
+        <v>1995</v>
       </c>
       <c r="B327">
-        <v>2.1295999999999999</v>
+        <v>2.1192000000000002</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>1880</v>
+        <v>2000</v>
       </c>
       <c r="B328">
-        <v>2.1291000000000002</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329">
-        <v>1885</v>
-      </c>
-      <c r="B329">
-        <v>2.1286</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330">
-        <v>1890</v>
-      </c>
-      <c r="B330">
-        <v>2.1280999999999999</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331">
-        <v>1895</v>
-      </c>
-      <c r="B331">
-        <v>2.1276999999999999</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332">
-        <v>1900</v>
-      </c>
-      <c r="B332">
-        <v>2.1272000000000002</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333">
-        <v>1905</v>
-      </c>
-      <c r="B333">
-        <v>2.1267</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334">
-        <v>1910</v>
-      </c>
-      <c r="B334">
-        <v>2.1263000000000001</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335">
-        <v>1915</v>
-      </c>
-      <c r="B335">
-        <v>2.1257999999999999</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336">
-        <v>1920</v>
-      </c>
-      <c r="B336">
-        <v>2.1254</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337">
-        <v>1925</v>
-      </c>
-      <c r="B337">
-        <v>2.125</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338">
-        <v>1930</v>
-      </c>
-      <c r="B338">
-        <v>2.1244999999999998</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339">
-        <v>1935</v>
-      </c>
-      <c r="B339">
-        <v>2.1240999999999999</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340">
-        <v>1940</v>
-      </c>
-      <c r="B340">
-        <v>2.1236999999999999</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341">
-        <v>1945</v>
-      </c>
-      <c r="B341">
-        <v>2.1232000000000002</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342">
-        <v>1950</v>
-      </c>
-      <c r="B342">
-        <v>2.1227999999999998</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343">
-        <v>1955</v>
-      </c>
-      <c r="B343">
-        <v>2.1223999999999998</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344">
-        <v>1960</v>
-      </c>
-      <c r="B344">
-        <v>2.1219999999999999</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345">
-        <v>1965</v>
-      </c>
-      <c r="B345">
-        <v>2.1215999999999999</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346">
-        <v>1970</v>
-      </c>
-      <c r="B346">
-        <v>2.1212</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347">
-        <v>1975</v>
-      </c>
-      <c r="B347">
-        <v>2.1208</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348">
-        <v>1980</v>
-      </c>
-      <c r="B348">
-        <v>2.1204000000000001</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349">
-        <v>1985</v>
-      </c>
-      <c r="B349">
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350">
-        <v>1990</v>
-      </c>
-      <c r="B350">
-        <v>2.1196000000000002</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351">
-        <v>1995</v>
-      </c>
-      <c r="B351">
-        <v>2.1192000000000002</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352">
-        <v>2000</v>
-      </c>
-      <c r="B352">
         <v>2.1187999999999998</v>
       </c>
     </row>
